--- a/test_data/admin_login_data.xlsx
+++ b/test_data/admin_login_data.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
